--- a/datos_dropcontrol/2025-07-31.xlsx
+++ b/datos_dropcontrol/2025-07-31.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45869.37520431744</v>
+        <v>45869.37520431713</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -522,6 +522,42 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>09:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45869.45852532828</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>578.3200000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>11:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-31.xlsx
+++ b/datos_dropcontrol/2025-07-31.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45869.45852532828</v>
+        <v>45869.45852532407</v>
       </c>
       <c r="B3" t="n">
         <v>2025</v>
@@ -558,6 +558,42 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>11:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45869.50021532802</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>69.77</v>
+      </c>
+      <c r="F4" t="n">
+        <v>632.8099999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>12:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-31.xlsx
+++ b/datos_dropcontrol/2025-07-31.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45869.50021532802</v>
+        <v>45869.50021532407</v>
       </c>
       <c r="B4" t="n">
         <v>2025</v>
@@ -594,6 +594,42 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>12:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45869.62521966729</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="E5" t="n">
+        <v>61.55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>444.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>15:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-31.xlsx
+++ b/datos_dropcontrol/2025-07-31.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45869.62521966729</v>
+        <v>45869.62521966435</v>
       </c>
       <c r="B5" t="n">
         <v>2025</v>
@@ -630,6 +630,42 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>15:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45869.75026166721</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="E6" t="n">
+        <v>88.26000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>18:00:22</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-31.xlsx
+++ b/datos_dropcontrol/2025-07-31.xlsx
@@ -1,40 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D3C88-5904-4CF5-B80A-9E8CA70F5979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>Temperatura (ºC)</t>
+  </si>
+  <si>
+    <t>Humedad Relativa (%)</t>
+  </si>
+  <si>
+    <t>Radiación Solar (W/m²)</t>
+  </si>
+  <si>
+    <t>Velocidad de Viento Promedio (km/h)</t>
+  </si>
+  <si>
+    <t>Dirección de Viento Predominante</t>
+  </si>
+  <si>
+    <t>Precipitación (mm)</t>
+  </si>
+  <si>
+    <t>Hora de Ejecución</t>
+  </si>
+  <si>
+    <t>ESE</t>
+  </si>
+  <si>
+    <t>09:00:17</t>
+  </si>
+  <si>
+    <t>11:00:16</t>
+  </si>
+  <si>
+    <t>12:00:18</t>
+  </si>
+  <si>
+    <t>15:00:18</t>
+  </si>
+  <si>
+    <t>18:00:22</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ENE</t>
+  </si>
+  <si>
+    <t>ONO</t>
+  </si>
+  <si>
+    <t>OSO</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +130,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,252 +455,760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sem</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura (ºC)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Humedad Relativa (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Radiación Solar (W/m²)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Velocidad de Viento Promedio (km/h)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Dirección de Viento Predominante</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Precipitación (mm)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Hora de Ejecución</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45869.37520431713</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B2">
+        <v>2025</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>14.46</v>
+      </c>
+      <c r="E2">
+        <v>91.53</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45869.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>2025</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>14.43</v>
+      </c>
+      <c r="E3">
+        <v>91.77</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45869.083333333336</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>14.36</v>
+      </c>
+      <c r="E4">
+        <v>91.91</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1.98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45869.125</v>
+      </c>
+      <c r="B5">
+        <v>2025</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>14.47</v>
+      </c>
+      <c r="E5">
+        <v>92.09</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45869.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>2025</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>14.56</v>
+      </c>
+      <c r="E6">
+        <v>91.46</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45869.208333333336</v>
+      </c>
+      <c r="B7">
+        <v>2025</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>14.32</v>
+      </c>
+      <c r="E7">
+        <v>91.28</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45869.25</v>
+      </c>
+      <c r="B8">
+        <v>2025</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>14.13</v>
+      </c>
+      <c r="E8">
+        <v>91.63</v>
+      </c>
+      <c r="F8">
+        <v>1.76</v>
+      </c>
+      <c r="G8">
+        <v>0.39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45869.291666666664</v>
+      </c>
+      <c r="B9">
+        <v>2025</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>14.24</v>
+      </c>
+      <c r="E9">
+        <v>91.91</v>
+      </c>
+      <c r="F9">
+        <v>65.48</v>
+      </c>
+      <c r="G9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45869.333333333336</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>15.46</v>
+      </c>
+      <c r="E10">
+        <v>90.92</v>
+      </c>
+      <c r="F10">
+        <v>243.46</v>
+      </c>
+      <c r="G10">
+        <v>3.97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45869.375204317133</v>
+      </c>
+      <c r="B11">
+        <v>2025</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="E11">
         <v>89.2</v>
       </c>
-      <c r="F2" t="n">
-        <v>314.65</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F11">
+        <v>314.64999999999998</v>
+      </c>
+      <c r="G11">
         <v>6.62</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>09:00:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45869.45852532407</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45869.416666666664</v>
+      </c>
+      <c r="B12">
+        <v>2025</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>20.39</v>
+      </c>
+      <c r="E12">
+        <v>75.19</v>
+      </c>
+      <c r="F12">
+        <v>543.16</v>
+      </c>
+      <c r="G12">
+        <v>8.61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45869.458525324073</v>
+      </c>
+      <c r="B13">
+        <v>2025</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
         <v>21.33</v>
       </c>
-      <c r="E3" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>578.3200000000001</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="E13">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="F13">
+        <v>578.32000000000005</v>
+      </c>
+      <c r="G13">
         <v>10.08</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>11:00:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45869.50021532407</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45869.500215324071</v>
+      </c>
+      <c r="B14">
+        <v>2025</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+      <c r="D14">
         <v>22.22</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E14">
         <v>69.77</v>
       </c>
-      <c r="F4" t="n">
-        <v>632.8099999999999</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F14">
+        <v>632.80999999999995</v>
+      </c>
+      <c r="G14">
         <v>12.15</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>12:00:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45869.62521966435</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45869.541666666664</v>
+      </c>
+      <c r="B15">
+        <v>2025</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>23.03</v>
+      </c>
+      <c r="E15">
+        <v>67.13</v>
+      </c>
+      <c r="F15">
+        <v>221.04</v>
+      </c>
+      <c r="G15">
+        <v>14.6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45869.583333333336</v>
+      </c>
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>24.06</v>
+      </c>
+      <c r="E16">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="F16">
+        <v>359.03</v>
+      </c>
+      <c r="G16">
+        <v>12.1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45869.625219664347</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17">
         <v>24.67</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E17">
         <v>61.55</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F17">
         <v>444.73</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G17">
         <v>12.17</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>15:00:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45869.75026166721</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45869.666666666664</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>23.06</v>
+      </c>
+      <c r="E18">
+        <v>62.27</v>
+      </c>
+      <c r="F18">
+        <v>170.95</v>
+      </c>
+      <c r="G18">
+        <v>19.8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45869.708333333336</v>
+      </c>
+      <c r="B19">
+        <v>2025</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>15.25</v>
+      </c>
+      <c r="E19">
+        <v>87.03</v>
+      </c>
+      <c r="F19">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="G19">
+        <v>16.05</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45869.750261667214</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
         <v>14.94</v>
       </c>
-      <c r="E6" t="n">
-        <v>88.26000000000001</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E20">
+        <v>88.26</v>
+      </c>
+      <c r="F20">
         <v>3.52</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G20">
         <v>10.85</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>18:00:22</t>
-        </is>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45869.791666666664</v>
+      </c>
+      <c r="B21">
+        <v>2025</v>
+      </c>
+      <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="E21">
+        <v>85.06</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>6.44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45869.833333333336</v>
+      </c>
+      <c r="B22">
+        <v>2025</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>15.9</v>
+      </c>
+      <c r="E22">
+        <v>85.11</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45869.875</v>
+      </c>
+      <c r="B23">
+        <v>2025</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E23">
+        <v>83.38</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4.57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45869.916666666664</v>
+      </c>
+      <c r="B24">
+        <v>2025</v>
+      </c>
+      <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>14.32</v>
+      </c>
+      <c r="E24">
+        <v>87.75</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45869.958333333336</v>
+      </c>
+      <c r="B25">
+        <v>2025</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>13.74</v>
+      </c>
+      <c r="E25">
+        <v>91.04</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>6.87</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>